--- a/prep_data/2025_downs_defense.xlsx
+++ b/prep_data/2025_downs_defense.xlsx
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="G2" t="n">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="H2" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>33.3</v>
+        <v>34.6</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>47.1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -542,117 +542,117 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="G3" t="n">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H3" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>50</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92</v>
+      </c>
+      <c r="D4" t="n">
+        <v>137</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>256</v>
+      </c>
+      <c r="G4" t="n">
+        <v>173</v>
+      </c>
+      <c r="H4" t="n">
+        <v>62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25</v>
+      </c>
+      <c r="K4" t="n">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>121</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>217</v>
-      </c>
-      <c r="G4" t="n">
-        <v>160</v>
-      </c>
-      <c r="H4" t="n">
-        <v>69</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
       <c r="L4" t="n">
-        <v>27.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G5" t="n">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="H5" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I5" t="n">
-        <v>34.4</v>
+        <v>43.5</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>54.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -662,77 +662,77 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="H6" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I6" t="n">
-        <v>32.6</v>
+        <v>33.6</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" t="n">
-        <v>54.3</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="D7" t="n">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="G7" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H7" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I7" t="n">
-        <v>30.9</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>52.9</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="8">
@@ -742,717 +742,717 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="G8" t="n">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="H8" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I8" t="n">
-        <v>35.6</v>
+        <v>39.2</v>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
-        <v>31.8</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="G9" t="n">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="H9" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>39.5</v>
+        <v>33.5</v>
       </c>
       <c r="J9" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>53.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D10" t="n">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="G10" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H10" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I10" t="n">
-        <v>37.1</v>
+        <v>38.1</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>66.7</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D11" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="G11" t="n">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="H11" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I11" t="n">
-        <v>44.2</v>
+        <v>42.9</v>
       </c>
       <c r="J11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>68.40000000000001</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D12" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="G12" t="n">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="H12" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I12" t="n">
-        <v>41.2</v>
+        <v>34.8</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>64.3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D13" t="n">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="G13" t="n">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="H13" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I13" t="n">
-        <v>40.1</v>
+        <v>39.8</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>40.7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D14" t="n">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="G14" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2</v>
+        <v>45.8</v>
       </c>
       <c r="J14" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>52.6</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D15" t="n">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G15" t="n">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H15" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5</v>
+        <v>41.1</v>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>60</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D16" t="n">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="G16" t="n">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H16" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>38.7</v>
       </c>
       <c r="J16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>58.6</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
+        <v>97</v>
+      </c>
+      <c r="D17" t="n">
+        <v>170</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>290</v>
+      </c>
+      <c r="G17" t="n">
+        <v>202</v>
+      </c>
+      <c r="H17" t="n">
         <v>73</v>
       </c>
-      <c r="D17" t="n">
-        <v>147</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
-      <c r="F17" t="n">
-        <v>250</v>
-      </c>
-      <c r="G17" t="n">
-        <v>165</v>
-      </c>
-      <c r="H17" t="n">
-        <v>62</v>
-      </c>
       <c r="I17" t="n">
-        <v>37.6</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D18" t="n">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="G18" t="n">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="H18" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I18" t="n">
-        <v>35.5</v>
+        <v>36.1</v>
       </c>
       <c r="J18" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L18" t="n">
-        <v>47.8</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D19" t="n">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="G19" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H19" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I19" t="n">
-        <v>46.8</v>
+        <v>40.7</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>61.1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D20" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="G20" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H20" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I20" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>66.7</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D21" t="n">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="G21" t="n">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="H21" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="I21" t="n">
-        <v>38.7</v>
+        <v>41.5</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D22" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F22" t="n">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="G22" t="n">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="H22" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="I22" t="n">
-        <v>40.9</v>
+        <v>48.7</v>
       </c>
       <c r="J22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>38.1</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D23" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="G23" t="n">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="H23" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I23" t="n">
-        <v>38.5</v>
+        <v>39.1</v>
       </c>
       <c r="J23" t="n">
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D24" t="n">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="G24" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H24" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" t="n">
-        <v>41.9</v>
+        <v>38.9</v>
       </c>
       <c r="J24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L24" t="n">
-        <v>30.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" t="n">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="G25" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="H25" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
-        <v>73.3</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="26">
@@ -1462,37 +1462,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D26" t="n">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="G26" t="n">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="H26" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I26" t="n">
-        <v>34.8</v>
+        <v>36.3</v>
       </c>
       <c r="J26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>76.90000000000001</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="27">
@@ -1502,277 +1502,277 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D27" t="n">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F27" t="n">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="G27" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="H27" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I27" t="n">
-        <v>37.7</v>
+        <v>39.9</v>
       </c>
       <c r="J27" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>44.4</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D28" t="n">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="G28" t="n">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="H28" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I28" t="n">
-        <v>43</v>
+        <v>42.7</v>
       </c>
       <c r="J28" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L28" t="n">
-        <v>63.2</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F29" t="n">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="G29" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H29" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I29" t="n">
-        <v>47.8</v>
+        <v>41</v>
       </c>
       <c r="J29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" t="n">
-        <v>58.8</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
+        <v>115</v>
+      </c>
+      <c r="D30" t="n">
+        <v>188</v>
+      </c>
+      <c r="E30" t="n">
+        <v>26</v>
+      </c>
+      <c r="F30" t="n">
+        <v>329</v>
+      </c>
+      <c r="G30" t="n">
+        <v>213</v>
+      </c>
+      <c r="H30" t="n">
         <v>90</v>
       </c>
-      <c r="D30" t="n">
-        <v>166</v>
-      </c>
-      <c r="E30" t="n">
-        <v>30</v>
-      </c>
-      <c r="F30" t="n">
-        <v>286</v>
-      </c>
-      <c r="G30" t="n">
-        <v>168</v>
-      </c>
-      <c r="H30" t="n">
-        <v>73</v>
-      </c>
       <c r="I30" t="n">
-        <v>43.5</v>
+        <v>42.3</v>
       </c>
       <c r="J30" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L30" t="n">
-        <v>50</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D31" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="G31" t="n">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" t="n">
-        <v>43.2</v>
+        <v>45.5</v>
       </c>
       <c r="J31" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K31" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L31" t="n">
-        <v>75</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D32" t="n">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F32" t="n">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G32" t="n">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="H32" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I32" t="n">
-        <v>40.6</v>
+        <v>41.3</v>
       </c>
       <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="n">
         <v>14</v>
       </c>
-      <c r="K32" t="n">
-        <v>10</v>
-      </c>
       <c r="L32" t="n">
-        <v>71.40000000000001</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D33" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E33" t="n">
+        <v>23</v>
+      </c>
+      <c r="F33" t="n">
+        <v>331</v>
+      </c>
+      <c r="G33" t="n">
+        <v>181</v>
+      </c>
+      <c r="H33" t="n">
+        <v>86</v>
+      </c>
+      <c r="I33" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J33" t="n">
         <v>21</v>
-      </c>
-      <c r="F33" t="n">
-        <v>296</v>
-      </c>
-      <c r="G33" t="n">
-        <v>161</v>
-      </c>
-      <c r="H33" t="n">
-        <v>77</v>
-      </c>
-      <c r="I33" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>20</v>
       </c>
       <c r="K33" t="n">
         <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>65</v>
+        <v>61.9</v>
       </c>
     </row>
   </sheetData>
